--- a/2 четверть_4_Программист_ООП.xlsx
+++ b/2 четверть_4_Программист_ООП.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user0\Desktop\Homework-repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91A5209-30BF-4234-87DE-2A563FB339A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1E0948-C2C5-4F36-B92F-6C7F62A08101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="266">
   <si>
     <t>Функции</t>
   </si>
@@ -1952,17 +1952,1999 @@
   <si>
     <t>Урок 4 Часть 1</t>
   </si>
+  <si>
+    <t>Обобщения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public MultiParameterized(E1 e1,E2 e2, E3 e3) {
+        this.value1 = e1;
+        this.value2 = e2;
+        this.value3 = e3;
+    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   @Override
+    public String toString() {
+        return String.format("E1 type: %s  E2 type: %s  E3 type: %s  ", 
+        value1.getClass().getSimpleName(),
+        value2.getClass().getSimpleName(),
+        value3.getClass().getSimpleName()
+        );
+    }
+}</t>
+  </si>
+  <si>
+    <t>1 Жизненная необходимость «Type save»
+2 Ошибки компиляции лучше ошибок выполнения
+3 Переиспользование кода «Reusable Code»
+4 Не нужно писать много одинакового кода, привязку типа можно вынести как уровень абстракции
+5 Проектирование уровня экземпляров класса
+6 Не работает для статики</t>
+  </si>
+  <si>
+    <t>00 00 00 - 00 11 00</t>
+  </si>
+  <si>
+    <r>
+      <t>public class MultiParameterized&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E1, E2, E3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt; {
+    public </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value1;
+    public </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value2;
+    public </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value3;</t>
+    </r>
+  </si>
+  <si>
+    <t>00 15 42</t>
+  </si>
+  <si>
+    <r>
+      <t>public class ParameterizedWorker&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt; {
+    private </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id;
+    public String firstName;
+    public String lastName;
+    public int age;
+    public int salary;</t>
+    </r>
+  </si>
+  <si>
+    <t>В данном случае мы указываем абстрактный тип класса, а также используем данный абстрактный тип в полях экземпляра класса</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Теперь при создании экземпляра Worker мы можем определять тип Workder так, как мы захотим и поле id будет приобратать данный тип</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    public ParameterizedWorker(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id, String firstName, String lastName, int age, int salary) {
+        this.id = id;
+        this.firstName = firstName;
+        this.lastName = lastName;
+        this.age = age;
+        this.salary = salary;
+    }</t>
+    </r>
+  </si>
+  <si>
+    <t>00 16 50</t>
+  </si>
+  <si>
+    <t>Используем несколько обобщающих типов</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Это один из подаспектов принципа полиморфизма. Только если </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>полиморфизм</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> работает в рамках иерархии родительских классов и наследников, то </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Полиметрический полиморфизм/обобщение </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>позволяет обозначать для классов абстрактные (Object) типы</t>
+    </r>
+  </si>
+  <si>
+    <t>00 19 30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Если класс имеет более 5 обощающих параметра, то стоит задуматься</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - может быть требуется разделить сущности или иерархии построить (всего позволено делать 18 обобщенных типов)</t>
+    </r>
+  </si>
+  <si>
+    <t>Обобщение вместо перегрузки</t>
+  </si>
+  <si>
+    <t>public class Methods {
+    public static Integer getElementFromIntegerCollection(List&lt;Integer&gt; col, int index) {
+        return col.get(index);
+    }
+    public static String getElementFromStringCollection(List&lt;String&gt; col, int index) {
+        return col.get(index);
+    }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    public static Double getElementFromDoubleCollection(List&lt;Double&gt; col, int index) {
+        return col.get(index);
+    }
+    // #region
+    public static </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;U&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> U getElementFromUCollection(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List&lt;U&gt; col</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, int index) {
+        return col.get(index);
+    }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> …мы можем прописать один метод с обобщенным типом</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Вместо перегрузки с копированием кода в десятки методов, мы можем</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public static </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;T1, T2&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> T2 put(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T1 arg1, T2 arg2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) {
+        // Map&lt;Integer,String&gt; hm = new HashMap&lt;&gt;();
+        // hm.put(key, value)
+        return arg2;
+    }</t>
+    </r>
+  </si>
+  <si>
+    <t>Обобщенные методы указываются в имени метода через запятую</t>
+  </si>
+  <si>
+    <t>00 22 06</t>
+  </si>
+  <si>
+    <t>Вариант вызова метода с указанием типа (необязательно)</t>
+  </si>
+  <si>
+    <t>Недостатки классического полиморфизма</t>
+  </si>
+  <si>
+    <t>public abstract class Content {
+    public String name;
+    public Content(String name) {
+        this.name = name;
+    }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class Program {
+    public static void main(String[] args) {
+        Repository audioStorage = new Repository("audioStorage");
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      audioStorage.add(new VideoContent("jfvjdhdf7768.mp4"));  //так не должно быть</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        videoStorage.add(new AudioContent("Дорожка 005.wav")); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class Repository {
+    List&lt;Content&gt; ds;
+    private String name;
+    public Repository(String name) {
+        this.ds = new ArrayList&lt;&gt;();
+        this.name = name;
+        System.out.printf("\n  &gt;&gt;  %s created\n",this.name);
+    }
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public void add(Content content) {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        ds.add(content);
+    }</t>
+    </r>
+  </si>
+  <si>
+    <t>Решение</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class Repository&lt;T&gt; {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    List&lt;T&gt; ds;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    private String name;
+    public Repository(String name) {
+        this.ds = new ArrayList&lt;&gt;();
+        this.name = name;
+        System.out.printf("\n  &gt;&gt;  %s created\n",this.name);
+    }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    public void add(T content) {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        ds.add(content);
+    }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Обозначаем обобщенный тип для класса репозиторий. Таким образом будет браться не класс родителя, а конкретный класс наследника.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Однако! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Теперь в репозиторий могут включить любые абсолютно типы, например вместо VideoContent и AudioContent может появиться тип строк 00 28 00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public class Repository&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T extends Content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; {
+    List&lt;T&gt; ds;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+…</t>
+    </r>
+  </si>
+  <si>
+    <t>Прописывает, что тип Т должен быть наследован от родительского класса Content</t>
+  </si>
+  <si>
+    <t>00 28 50</t>
+  </si>
+  <si>
+    <t>Ввиду того, что класс Content является родительским для  классов VideoContent и AudioContent, то происходит допущение возможности вложить в репозиторий с аудиоконтентом несоответствующий тип контента</t>
+  </si>
+  <si>
+    <t>Параметрический полиморфизм</t>
+  </si>
+  <si>
+    <t>Урок 5</t>
+  </si>
+  <si>
+    <t>Практика</t>
+  </si>
+  <si>
+    <t>Урок 6</t>
+  </si>
+  <si>
+    <t>Принцип единственной ответственности
+Принцип открытости/закрытости
+Принцип подстановки Лисков
+Принцип разделения интерфейса 
+Принцип инверсии зависимостей</t>
+  </si>
+  <si>
+    <t>Single responsibility principle
+Open-closed principle
+Liskov substitution principle
+Interface segregation principle
+Dependency inversion principle</t>
+  </si>
+  <si>
+    <t>принцип SOLID</t>
+  </si>
+  <si>
+    <t>Open-closed principle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">классы должны быть открыты для расширения и одновременно закрыты для модификации. Иными словами, должна быть возможность добавлять новые свойства и расширять класс без изменения внутренней реализации существующих свойств._x000B_«закрыт для модификации»_x000B_«Открыт для расширений» </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Хороший код должен быть поддерживаемым. То есть при необходимости масштабировать такой код, его не придется переписывать заново
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Два любых человека могут декомпозировать одну задачу по-разному и оба варианта будут приемлемыми</t>
+    </r>
+  </si>
+  <si>
+    <t>(см лекцию по C# о принципах программирования)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Требует возможности использования любых порожденных классов на месте родительских. При этом они должны обладать тем же поведением, что и родительские классы, без внесения изменений. Этот принцип гарантирует, что порожденный класс не изменяет определение типа родительского и его поведение. </t>
+  </si>
+  <si>
+    <t>Interface segregation principle</t>
+  </si>
+  <si>
+    <t>Клиенты не должны реализовывать интерфейсы, которые они не используют. 
+Данный принцип требует разделения «толстых»  интерфейсов на несколько специализированных, связанных общей функциональностью.</t>
+  </si>
+  <si>
+    <t>Dependency inversion principle</t>
+  </si>
+  <si>
+    <t>Принцип инверсии зависимостей
+1 модули высокого уровня не должны зависеть от модулей нижнего уровня. И те, и другие должны зависеть от абстракций.
+2 абстракции не должны зависеть от деталей. Детали должны зависеть от абстракций.</t>
+  </si>
+  <si>
+    <t>Введение о книжных трактовках SOLID и трактовках в реальной жизни при спорах между разработчиками чей код совершеннее</t>
+  </si>
+  <si>
+    <t>Принцип гласит, что может быть только одна причина, приводящая к изменению класса. Другими словами, каждый класс должен иметь только одну ответственность, которая должна быть инкапсулирована в этом классе. 
+тестируемость; 
+читаемость;
+короткое и понятное описание класса;
+простота сопровождения.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Из лекции:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Важно, чтобы одна какая-то сущность не решала несколько задач"
+т.е."Котик может мяукать, но не может гавкать".
+Если "котик будет придерживаться SOLID",
+то он будет обладать:
+1 тестируемость; 
+2 читаемость;
+3 короткое и понятное описание класса;
+4 простота сопровождения.</t>
+    </r>
+  </si>
+  <si>
+    <t>00 05 54
+00 08 58 - практика</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Своими словами: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Если у нас есть класс Notepad, то единственные методы, которые он может исполнять - это открываться, закрываться, быть доступным, удаляться.
+Чтобы с ним работать в части записывания информации (это придумка пользователя как можно работать с Notepad), то нужно создать новый класс Datamanagement, в котором указать методы, использующие сущность Notepad в качестве параметров.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Своими словами:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Если мы сохраняем какие-то данные в notepad , то эти данные тоже должны быть выделены в отдельные классы, чтобы их затем возможно было отдельно протестировать (например мы можем сохранять данные в виде строк, либо в виде каких-то сущностей - карточек клиентов)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 11 00</t>
+  </si>
+  <si>
+    <t>class DataManager {
+    private boolean check(String filenameOfConnect){
+        return true;
+    }
+    public void saveAllText(PlannerSRP planner,String path) {
+        /// ошибки связанные с...
+        if(check(path));///
+    }
+    public void loadFromFile(PlannerSRP planner,String path) {
+        /// ошибки связанные с...
+        if(check(path));///
+    }
+    public void loadFromDB(String url, String username, String password) {
+        /// ошибки связанные с...
+        if(check(url));///
+    }    
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно - пояснение принципа описания возможных методов класса (без растекания в другие классы)!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> В данном случае мы указали действия, которые можно совершить в NotePad, однако в коде этих методов мы не проводим прямую запись в файл или базу данных. Мы всего лишь сохраняем данные NotePad во встроенных структурах данных (в данном случае в List)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class PlannerSRP {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List&lt;String&gt; entries = new ArrayList&lt;&gt;();</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    public void addEntry(String text) {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entries.add(text);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }
+    public void removeEntry(int index) {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entries.remove(index);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }
+    @Override
+    public String toString() {
+        return String.join("\n", entries);
+    }    
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Описали отдельный класс DataManager, который отвечает за прием данных и сохранения данных в определенном формат (файл или база данных)</t>
+  </si>
+  <si>
+    <t>00 13 00</t>
+  </si>
+  <si>
+    <t>Пример (одного из возможных вариантов)</t>
+  </si>
+  <si>
+    <t>Single responsibility principle
+Принцип единственной ответственности</t>
+  </si>
+  <si>
+    <t>public class Ex002_2OCP {
+    public static void main(String[] args) {
+        System.out.println(new BaseClient().getDiscount(100));
+        System.out.println(new SilverPartner().getDiscount(100));
+        System.out.println(new VIPPartner().getDiscount(100));
+    }
+}
+class BaseClient {
+    public double getDiscount(double price) {
+        return price * 0.95;
+    }
+}
+class SilverPartner extends BaseClient {
+    @Override
+    public double getDiscount(double price) {
+        return super.getDiscount(price) * 0.9;
+    }
+}
+class VIPPartner extends SilverPartner {
+    @Override
+    public double getDiscount(double price) {
+        return super.getDiscount(price) * 0.9;
+    }
+}</t>
+  </si>
+  <si>
+    <t>class Client {
+    public int clientType;
+    public Client(int type) {
+        clientType = type;
+    }
+    public double getDiscount(double price) {
+        return (clientType == 1) ? price *0.85 : price *0.95;
+    }
+}
+// Больше клиентов = больше if'ов</t>
+  </si>
+  <si>
+    <t>До</t>
+  </si>
+  <si>
+    <t>После</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Создание дополнительных сущностей, которые наследуются друг от друга позволяет избежать сложных if конструкций. Таким образом при выборе нужной сущности исполняется именно тот сценарий, который нам нужен</t>
+    </r>
+  </si>
+  <si>
+    <t>00 23 47</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Мы не можем менять ранее созданные классы, которые ушли в production, однако можем создавать дополнительные сущности, которые развивают существующий класс, наследуя его</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void main(String[] args) throws Exception {
+        List&lt;Animal&gt; list = 
+        new ArrayList&lt;&gt;(Arrays.asList(new Cat(), new Fish() ));
+        for (var animal : list) {
+            System.out.println(animal.getType());
+            System.out.println(animal.getLegsCount());
+        }
+    }
+abstract class Animal {
+    public String getType() {
+        return "Зверушка";
+    }
+    public int getLegsCount() throws Exception {
+        return 0;
+    }
+}
+</t>
+  </si>
+  <si>
+    <t>class Cat extends Animal {
+    @Override
+    public String getType() {
+        return "кошечка";
+    }
+    @Override
+    public int getLegsCount() {
+        return 4;
+    }
+}
+class Fish extends Animal
+{
+     @Override
+     public String getType() {
+        return "Рыбка";
+     }
+     public int getLegsCount() throws Exception {
+        throw new Exception("я же рыбка...");
+     }
+}</t>
+  </si>
+  <si>
+    <r>
+      <t>public static void main(String[] args) {
+        List&lt;AbstractAnimal&gt; list1 = new ArrayList&lt;&gt;(Arrays.asList(new Dog(), new Python()));
+        for (var animal : list1) {
+            System.out.println(animal.getType());
+        }
+        List&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Legs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; list2 = new ArrayList&lt;&gt;(Arrays.asList(new Dog()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/* , new Python() */</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">));
+        for (var animal : list2) {
+            System.out.println(animal.getLegsCount());
+        }
+    }
+abstract class AbstractAnimal {
+    public String getType() {
+        return "Зверушка";
+    }
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interface Legs {
+    int getLegsCount();
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>class Dog extends AbstractAnimal implements Legs {
+    @Override
+    public String getType() {
+        return "собачка";
+    }
+    @Override
+    public int getLegsCount() {
+        return 4;
+    }
+}
+class Python extends AbstractAnimal {
+    @Override
+    public String getType() {
+        return "питончик";
+    }
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> То есть наследник должен уметь делать абсоолютно все то, что умеет делать родитель. То есть если родитель имеет лапки, то и наследник змея тоже должна иметь лапки (ниже представлен пример, как можно исправить этот нюанс, используя интерфейсы)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Любой метод какого-то наследника желательно включать отдельном интерфейсе, чтобы затем иметь возможность использовать свойства различных наследных сущностей в различных структурах данных, обрабатывая информацию в них. Добавив интерфейс, мы можем создавать полноценно работать с одним типом объектов, у которых имеются лапки</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>00 28 00</t>
+  </si>
+  <si>
+    <t>interface Phone {
+    void Call();    
+    void SendSMS();    
+    void SendEMail();
+    void SendFax();
+}
+class Siemens implements Phone {
+    @Override
+    public void Call() {
+        // TODO Auto-generated method stub
+    }
+    @Override
+    public void SendSMS() {
+        // TODO Auto-generated method stub
+    }
+    @Override
+    public void SendEMail() {
+        // TODO Auto-generated method stub
+    }
+    @Override
+    public void SendFax() {
+        // TODO Auto-generated method stub
+    }
+}</t>
+  </si>
+  <si>
+    <t>class Nokia3310 implements Phone {
+    @Override
+    public void Call() {
+        // TODO Auto-generated method stub
+    }
+    @Override
+    public void SendSMS() {
+        // TODO Auto-generated method stub
+    }
+    @Override
+    public void SendEMail() {
+        // TODO Auto-generated method stub
+    }
+    @Override
+    public void SendFax() {
+        // TODO Auto-generated method stub
+    }
+}</t>
+  </si>
+  <si>
+    <t>Нокиа не может отправлять Факс и Электорнные сообщения, однако ввиду использования интерфейса, который заставляет это делать, мы обязаны включить все методы этого интерфейса</t>
+  </si>
+  <si>
+    <t>Гораздо правильнее реализовать несколько интерфейсов, которые обязывают исполнять определенные небольшие наборы методов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interface BasePhone {
+    void Call();
+    void SendSMS();
+}
+interface Fax {
+    void SendFax();
+}
+interface EMail {
+    void SendEMail();
+}
+class IPhone implements BasePhone, Fax, EMail {
+    @Override
+    public void Call() {
+    }
+    @Override
+    public void SendSMS() {
+    }
+    @Override
+    public void SendEMail() {
+    }
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    @Override
+    public void SendFax() {
+    }
+}
+class Nokia3311 implements BasePhone {
+    @Override
+    public void Call() {
+    }
+    @Override
+    public void SendSMS() {
+    }
+}</t>
+  </si>
+  <si>
+    <t>00 33 00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение своими словами</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: если у нас имеется какой-то общий класс Book, то данный класс не должен зависемть от какого-нибудь наследника-наследников Viewer, так как наследники могут дополняться, однако функциональность нашей Book не должна ограничиваться</t>
+    </r>
+  </si>
+  <si>
+    <t>interface View {
+    void print(String text);
+}
+class ConsoleView implements View {
+    public void print(String text) {
+        String result = String.format("ConsoleView %s", text);
+        System.out.println(result);
+    }
+}
+class WinFormView implements View {
+    public void print(String text) {
+        String result = String.format("WinFormView %s", text);
+        System.out.println(result);
+    }
+}</t>
+  </si>
+  <si>
+    <t>class Book {
+    View view;
+    int indexPage;
+    public Book() {
+        this.view = new ConsoleView();
+        indexPage = 1;
+    }
+    public void viewTitle() {
+        view.print("Заголовок книги");
+    }
+    public void viewAuthor() {
+        view.print("Авторы книги");
+    }
+    public void turnPage(int page) {
+        if (page &gt;= 1 &amp;&amp; page &lt;= 300)
+            this.indexPage = page;
+    }
+    public void viewCurrentPage() {
+        view.print(String.format("Страница: %s", indexPage));
+    }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class Ex005_2DIP {
+    public static void main(String[] args) {
+        BookDIP bookDIP = new BookDIP(new ConsoleViewDIP());
+        bookDIP.viewAuthor();
+    }
+}
+interface ViewDIP {
+    void print(String text);
+}
+class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ConsoleViewDIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> implements ViewDIP {
+    public void print(String text) {
+        String result = String.format("ConsoleViewDIP %s", text);
+        System.out.println(result);
+    }
+}
+class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WinFormViewDIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> implements ViewDIP {
+    public void print(String text) {
+        String result = String.format("WinFormViewDIP %s", text);
+        System.out.println(result);
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class BookDIP {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ViewDIP view;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    public void setView</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ViewDIP view)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+        this.view = view;
+    }
+    int indexPage;
+    public BookDIP(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ViewDIP view)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+        this.view = view;
+        indexPage = 1;
+    }
+    public void viewTitle() {
+        view.print("Заголовок книги");
+    }
+    public void viewAuthor() {
+        view.print("Авторы книги");
+    }
+    public void turnPage(int page) {
+        if (page &gt;= 1 &amp;&amp; page &lt;= 300)
+            this.indexPage = page;
+    }
+    public void viewCurrentPage() {
+        view.print(String.format("Страница: %s", indexPage));
+    }</t>
+    </r>
+  </si>
+  <si>
+    <t>Liskov substitution principle
+Принцип Лисковой</t>
+  </si>
+  <si>
+    <t>Семинар 7 00 40 00 - UML diagrams (показывает что через src  можно показать диаграмы связей классов</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class StudyGroupComparator </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>implements Comparator&lt;Student&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+    @Override
+    public int </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Student student1, Student student2) {
+        if (student1.getSurname().</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>equalsIgnoreCase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(student2.getSurname())){
+            return student1.getName().</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compareToIgnoreCase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(student2.getName());
+        }
+        return student1.getSurname().compareToIgnoreCase(student2.getSurname());
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>package personal.views;
+public enum Commands {
+    NONE,
+    READ,
+    CREATE,
+    UPDATE,
+    LIST,
+    DELETE,
+    EXIT
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             case LIST:
+                    userController.readUsers().forEach(System.out::println);
+                    break;
+                case UPDATE:
+                    String firstName = prompt("Имя: ");
+                    String lastName = prompt("Фамилия: ");
+                    String phone = prompt("Номер телефона: ");
+                    String userID = prompt("Идентификатор пользователя: ");
+                    userController.editUser(new User(userID, firstName, lastName, phone));
+                case DELETE:
+                    String deleteUserID = prompt("Идентификатор пользователя: ");
+                    userController.deleteUser(deleteUserID);
+            }
+        }
+    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> } catch (IllegalStateException e) {
+                        System.out.println(e.getMessage());
+                        continue;
+                    }
+                    break;
+                case READ:
+                    String id = prompt("Идентификатор пользователя: ");
+                    try {
+                        User user = userController.readUser(id);
+                        System.out.println(user);
+                    } catch (Exception e) {
+                        throw new RuntimeException(e);
+                    }
+                    break;</t>
+  </si>
+  <si>
+    <t>String command = prompt("Введите команду: ");
+com = Commands.valueOf(command.toUpperCase());</t>
+  </si>
+  <si>
+    <t>Получение команды от пользователя</t>
+  </si>
+  <si>
+    <t>Сравнение команды от пользователя с событиями, описанными в switch case</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public void run(){
+        Commands com = Commands.NONE;
+        while (true) {
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>try {
+                String command = prompt("Введите команду: ");
+                com = Commands.valueOf(command.toUpperCase());
+            } catch (IllegalArgumentException e) {
+                System.out.println("Unknown command");
+                continue;
+            }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+            if (com == Commands.EXIT) return;
+            switch (com) {
+                case CREATE:
+                    try {
+                        String firstName = prompt("Имя: ");
+                        String lastName = prompt("Фамилия: ");
+                        String phone = prompt("Номер телефона: ");
+                        userController.saveUser(new User(firstName, lastName, phone));</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2029,8 +4011,34 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2070,6 +4078,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2203,7 +4229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2223,13 +4249,13 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -2239,119 +4265,185 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2776,8 +4868,8 @@
       <xdr:rowOff>57727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2782455</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>64656</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>905891</xdr:rowOff>
     </xdr:to>
@@ -2820,8 +4912,8 @@
       <xdr:rowOff>77487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2782455</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>64656</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>1475709</xdr:rowOff>
     </xdr:to>
@@ -2848,6 +4940,94 @@
         <a:xfrm>
           <a:off x="13000181" y="55160851"/>
           <a:ext cx="2643910" cy="1398222"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>272143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3447143</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>431446</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Рисунок 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC60736-E52E-4FBC-9700-2EF08A647634}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4372429" y="80109786"/>
+          <a:ext cx="3429000" cy="159303"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>406401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3325665</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>1739901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Рисунок 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5FED8CD-8325-44F8-AD14-BB86A46A9B0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3873500" y="97193101"/>
+          <a:ext cx="3185965" cy="1333500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3125,18 +5305,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V74"/>
+  <dimension ref="A2:V156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="62.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="53.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="67.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="66.08984375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="38.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.26953125" style="10" customWidth="1"/>
     <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
@@ -3289,23 +5469,23 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="29" t="s">
@@ -3313,13 +5493,13 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="29"/>
@@ -3329,13 +5509,13 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="29" t="s">
         <v>35</v>
       </c>
@@ -3351,11 +5531,10 @@
       <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="29" t="s">
@@ -3371,7 +5550,7 @@
       <c r="N17" s="29"/>
     </row>
     <row r="18" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="30" t="s">
@@ -3994,35 +6173,694 @@
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A73" s="6"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="U73" s="8"/>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="36"/>
+    </row>
+    <row r="73" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="B73" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C73" s="36"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
+      <c r="C74" s="36"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C75" s="36"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C76" s="36"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C77" s="36"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A79" s="6"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="U79" s="8"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="P74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="2"/>
+      <c r="B80" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B82" s="45"/>
+      <c r="C82" s="45"/>
+    </row>
+    <row r="83" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="18"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="D84" s="21"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A88" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="28"/>
+      <c r="C89" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D89" s="29"/>
+    </row>
+    <row r="90" spans="1:4" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="18"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D90" s="21"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C91" s="45"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="31"/>
+      <c r="B94" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="D94" s="17"/>
+    </row>
+    <row r="95" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A95" s="28"/>
+      <c r="B95" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="D95" s="29"/>
+    </row>
+    <row r="96" spans="1:4" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B98" s="27"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D99" s="29"/>
+    </row>
+    <row r="100" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A100" s="28"/>
+      <c r="C100" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="D100" s="29"/>
+    </row>
+    <row r="101" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="28"/>
+      <c r="C101" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="D101" s="29"/>
+      <c r="F101" s="71"/>
+    </row>
+    <row r="102" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="D102" s="29"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="D103" s="29"/>
+    </row>
+    <row r="104" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="C104" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="D104" s="29"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="D105" s="29"/>
+    </row>
+    <row r="106" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="B106" s="30"/>
+      <c r="C106" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A114" s="6"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+      <c r="P114" s="8"/>
+      <c r="Q114" s="8"/>
+      <c r="R114" s="8"/>
+      <c r="S114" s="8"/>
+      <c r="U114" s="8"/>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P115" s="1"/>
+      <c r="U115" s="1"/>
+      <c r="V115" s="2"/>
+    </row>
+    <row r="116" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B116" s="72"/>
+      <c r="C116" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" ht="290" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B117" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+      <c r="A118" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" ht="232" x14ac:dyDescent="0.35">
+      <c r="C119" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A122" s="6"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="6"/>
+      <c r="P122" s="8"/>
+      <c r="Q122" s="8"/>
+      <c r="R122" s="8"/>
+      <c r="S122" s="8"/>
+      <c r="U122" s="8"/>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C123" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="P123" s="1"/>
+      <c r="U123" s="1"/>
+      <c r="V123" s="2"/>
+    </row>
+    <row r="124" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C124" s="53"/>
+      <c r="P124" s="1"/>
+      <c r="U124" s="1"/>
+      <c r="V124" s="2"/>
+    </row>
+    <row r="125" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A125" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="B125" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C125" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D125" s="57" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A126" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B126" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="C126" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="D126" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A127" s="28"/>
+      <c r="B127" s="48"/>
+      <c r="C127" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="D127" s="58"/>
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A128" s="28"/>
+      <c r="B128" s="48"/>
+      <c r="C128" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="D128" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="B129" s="48"/>
+      <c r="C129" s="48"/>
+      <c r="D129" s="58"/>
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="A130" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="B130" s="48"/>
+      <c r="C130" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="D130" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="1:6" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="B131" s="61"/>
+      <c r="C131" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="D131" s="63"/>
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B132" s="48"/>
+      <c r="C132" s="48"/>
+      <c r="D132" s="2"/>
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B133" s="48"/>
+      <c r="C133" s="48"/>
+      <c r="D133" s="2"/>
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A134" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B134" s="66" t="s">
+        <v>235</v>
+      </c>
+      <c r="C134" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="29"/>
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" s="28"/>
+      <c r="B136" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="C136" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="D136" s="29"/>
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="1:6" ht="406.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="B137" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="C137" s="69" t="s">
+        <v>229</v>
+      </c>
+      <c r="D137" s="21"/>
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B138" s="65"/>
+      <c r="C138" s="48"/>
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A139" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="B139" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="C139" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="29"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" s="28"/>
+      <c r="B141" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="C141" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="D141" s="29"/>
+    </row>
+    <row r="142" spans="1:6" ht="391.5" x14ac:dyDescent="0.35">
+      <c r="A142" s="28"/>
+      <c r="B142" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C142" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="D142" s="29"/>
+    </row>
+    <row r="143" spans="1:6" ht="334" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A143" s="68" t="s">
+        <v>241</v>
+      </c>
+      <c r="B143" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C143" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="D143" s="21"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C144" s="48"/>
+    </row>
+    <row r="145" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C145" s="48"/>
+    </row>
+    <row r="146" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A146" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B146" s="27"/>
+      <c r="C146" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="D146" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="29"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" s="28"/>
+      <c r="B148" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="C148" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="D148" s="29"/>
+    </row>
+    <row r="149" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A149" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C149" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="D149" s="29"/>
+    </row>
+    <row r="150" spans="1:6" ht="319.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="70" t="s">
+        <v>246</v>
+      </c>
+      <c r="B150" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C150" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="D150" s="21"/>
+    </row>
+    <row r="151" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C151" s="48"/>
+    </row>
+    <row r="152" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A152" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B152" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="C152" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="29"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154" s="28"/>
+      <c r="B154" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="C154" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="D154" s="29"/>
+    </row>
+    <row r="155" spans="1:6" ht="348" x14ac:dyDescent="0.35">
+      <c r="A155" s="28"/>
+      <c r="B155" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C155" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="D155" s="29"/>
+    </row>
+    <row r="156" spans="1:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A156" s="18"/>
+      <c r="B156" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C156" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="D156" s="21"/>
+      <c r="F156" s="54" t="s">
+        <v>256</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/2 четверть_4_Программист_ООП.xlsx
+++ b/2 четверть_4_Программист_ООП.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user0\Desktop\Homework-repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1E0948-C2C5-4F36-B92F-6C7F62A08101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F375FC-6210-4122-BA7F-2D95B30B1A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="275">
   <si>
     <t>Функции</t>
   </si>
@@ -201,99 +201,6 @@
   </si>
   <si>
     <t>Переопределение конструктора (вариант 1)</t>
-  </si>
-  <si>
-    <r>
-      <t>public Point2D(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>int value</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) {
-        x = value;
-        y = value;
-    }</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>public class Point2D {
-    int x, y;
-    public Point2D(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>int valueX, int valueY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) {
-        x = valueX;
-        y = valueY;
-    }
-}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">public </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Point2D()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> {
-        x = 0;
-        y = 0;
-    }</t>
-    </r>
   </si>
   <si>
     <t>Принцип DRY</t>
@@ -690,9 +597,6 @@
   </si>
   <si>
     <t>Сравнение объектов</t>
-  </si>
-  <si>
-    <t>Пример использования super</t>
   </si>
   <si>
     <r>
@@ -3894,17 +3798,399 @@
                         userController.saveUser(new User(firstName, lastName, phone));</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>При объявлении полей конструкторов без присвоения им определенных изначальных значений JVM все равно сможет скопилировать программу. Хотя при объявлении новой переменной внутри методов JVM всегда попросит присвоить ей начальное значение.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class Counter {
+    private String a;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//в данном случае конструктор имеется, просто он не принимает никаких аргументов и поэтому не устанавливает их в свои поля</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    public void add() {
+        a = a + "1";
+    }</t>
+    </r>
+  </si>
+  <si>
+    <t>public class Point2D {
+    int x, y;
+    public Point2D() {
+        this.x = 0;
+        this.y = 0;
+    }
+}</t>
+  </si>
+  <si>
+    <r>
+      <t>public Point2D(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) {
+        this.x = value;
+        this.y = value;
+    }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class Point2D {
+    int x, y; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//поля экземпляра класса. Обязаны быть прописаны, но не обязаны хранить какое-то конкретное изначальное значение (без изначального значения всегда равны 0,0.0 или null)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    public Point2D(int valueX, int valueY) {
+        this.x = valueX; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//данный код необходим только для того, чтобы прописать определенные значения (либо от аргументов контсруктора, либо из других источников), которые будут хранить поля экземляра после его создания. Могут вообще отсутствовать</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        this.y = valueY; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//данный код необходим только для того, чтобы прописать определенные значения (либо от аргументов контсруктора, либо из других источников), которые будут хранить поля экземляра после его создания. Могут вообще отсутствовать</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Пример использования </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>super.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Конечно можно и не использовать super, а применять this, однако могут быть проблемы при взаимодействии данного экземпляра с другими классами-наследниками данного родителя, а также нам бы пришлось прописывать лишние дополнительные поля для нашего класса-наследника.</t>
+    </r>
+  </si>
+  <si>
+    <t>Самостоятельный пример</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class Main {
+    public static void main(String[] args) {
+        Main mn = new Main();
+        MyClass2 class2 = new MyClass2("hello");
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class2.msg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = "bye";
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class MyClass1 {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public String msg;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    public MyClass1(String message) {
+        this.msg = message;
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Здесь мы обращаем к полю экземпляра Class2 (наследник), однако по идентификатору поля Class1 (родитель). </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Таким образом при объявлении super в конструкторе, мы обязаны в дальнейшем обращаться к полям нашего наследника, используя названия полей родителя</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class MyClass2 extends MyClass1 {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  //нет ненужных полей, так как все поля были унаследованы от родителя</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    public MyClass2(String message) {
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>super(message);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }
+}</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4037,8 +4323,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4096,6 +4391,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4229,7 +4530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4249,13 +4550,13 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -4265,91 +4566,100 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4358,91 +4668,100 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5307,8 +5626,8 @@
   </sheetPr>
   <dimension ref="A2:V156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5468,24 +5787,28 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="232" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="74" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="72" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="29" t="s">
@@ -5496,56 +5819,74 @@
       <c r="A15" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="72" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="29"/>
+      <c r="F15" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="K15" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="29" t="s">
         <v>35</v>
       </c>
+      <c r="F16" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="G16" s="78"/>
+      <c r="H16" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="I16" s="17"/>
       <c r="K16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="27" t="s">
-        <v>78</v>
-      </c>
+      <c r="L16" s="78"/>
       <c r="M16" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="74"/>
+      <c r="C17" s="72" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>26</v>
       </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="76" t="s">
+        <v>267</v>
+      </c>
+      <c r="H17" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="I17" s="29"/>
       <c r="K17" s="28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N17" s="29"/>
     </row>
@@ -5554,64 +5895,74 @@
         <v>36</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>37</v>
       </c>
+      <c r="F18" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="I18" s="21"/>
       <c r="K18" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N18" s="29"/>
     </row>
     <row r="19" spans="1:22" ht="145" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="B19" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>52</v>
+      <c r="C19" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="K19" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N19" s="29"/>
     </row>
     <row r="20" spans="1:22" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>51</v>
-      </c>
       <c r="D20" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L20" s="30"/>
       <c r="M20" s="30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N20" s="21"/>
     </row>
@@ -5621,10 +5972,10 @@
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -5633,10 +5984,10 @@
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
@@ -5660,7 +6011,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P25" s="1"/>
       <c r="U25" s="1"/>
@@ -5688,232 +6039,232 @@
     </row>
     <row r="27" spans="1:22" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K28" s="33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L28" s="27"/>
       <c r="M28" s="27" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N28" s="17"/>
     </row>
     <row r="29" spans="1:22" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>65</v>
-      </c>
       <c r="K29" s="32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N29" s="29"/>
     </row>
     <row r="30" spans="1:22" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>31</v>
       </c>
       <c r="K30" s="32" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L30" s="30"/>
       <c r="M30" s="30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N30" s="21"/>
     </row>
     <row r="31" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F31" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="31" t="s">
         <v>105</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>109</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I32" s="17"/>
       <c r="K32" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L32" s="34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N32" s="17"/>
     </row>
     <row r="33" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A33" s="37" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F33" s="28"/>
       <c r="H33" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I33" s="29"/>
       <c r="K33" s="28"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N33" s="29"/>
     </row>
     <row r="34" spans="1:22" ht="276" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G34" s="30"/>
       <c r="H34" s="30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I34" s="21"/>
       <c r="K34" s="28"/>
       <c r="L34" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N34" s="29"/>
     </row>
     <row r="35" spans="1:22" ht="247" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F35" s="22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G35" s="23"/>
       <c r="H35" s="23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I35" s="25"/>
       <c r="K35" s="18"/>
       <c r="L35" s="30"/>
       <c r="M35" s="30" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N35" s="21"/>
     </row>
     <row r="36" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K36" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="K37" s="26" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L37" s="27"/>
       <c r="M37" s="27" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N37" s="17"/>
     </row>
     <row r="38" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="K38" s="35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N38" s="29"/>
     </row>
     <row r="39" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="K39" s="35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="N39" s="29"/>
     </row>
     <row r="40" spans="1:22" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K40" s="32" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L40" s="30"/>
       <c r="M40" s="30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N40" s="21"/>
     </row>
@@ -5938,53 +6289,53 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B45" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C46" s="1"/>
       <c r="I46" s="17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="31" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B47" s="27"/>
       <c r="C47" s="38" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D47" s="17"/>
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="39" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B48" s="30"/>
       <c r="C48" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D48" s="21"/>
     </row>
@@ -5993,7 +6344,7 @@
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
       <c r="C50" s="41" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D50" s="25"/>
     </row>
@@ -6018,10 +6369,10 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P56" s="1"/>
       <c r="U56" s="1"/>
@@ -6029,76 +6380,76 @@
     </row>
     <row r="57" spans="1:22" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C57" s="36" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="18"/>
       <c r="B59" s="30"/>
       <c r="C59" s="40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D59" s="21"/>
       <c r="F59" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G60" s="27"/>
       <c r="H60" s="27" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I60" s="17"/>
     </row>
     <row r="61" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="F61" s="28"/>
       <c r="H61" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I61" s="29"/>
     </row>
     <row r="62" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="F62" s="35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I62" s="29"/>
     </row>
     <row r="63" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="F63" s="28"/>
       <c r="H63" s="36" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I63" s="29"/>
     </row>
@@ -6106,7 +6457,7 @@
       <c r="F64" s="18"/>
       <c r="G64" s="30"/>
       <c r="H64" s="30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I64" s="21"/>
     </row>
@@ -6131,10 +6482,10 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P68" s="1"/>
       <c r="U68" s="1"/>
@@ -6142,46 +6493,46 @@
     </row>
     <row r="69" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B70" s="42" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C70" s="36" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C71" s="36" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C72" s="36"/>
     </row>
-    <row r="73" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="B73" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C73" s="36"/>
     </row>
@@ -6218,10 +6569,10 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P80" s="1"/>
       <c r="U80" s="1"/>
@@ -6229,44 +6580,44 @@
     </row>
     <row r="81" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C81" s="45" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B82" s="45"/>
       <c r="C82" s="45"/>
     </row>
     <row r="83" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A83" s="26" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B83" s="46" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="18"/>
       <c r="B84" s="30"/>
       <c r="C84" s="30" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D84" s="21"/>
     </row>
@@ -6275,37 +6626,37 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A88" s="31" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B88" s="46" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A89" s="28"/>
       <c r="C89" s="45" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D89" s="29"/>
     </row>
@@ -6313,7 +6664,7 @@
       <c r="A90" s="18"/>
       <c r="B90" s="30"/>
       <c r="C90" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D90" s="21"/>
     </row>
@@ -6322,52 +6673,52 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A94" s="31"/>
       <c r="B94" s="46" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C94" s="46" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D94" s="17"/>
     </row>
     <row r="95" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A95" s="28"/>
       <c r="B95" s="45" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D95" s="29"/>
     </row>
     <row r="96" spans="1:4" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C96" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="D96" s="21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="15" t="s">
-        <v>188</v>
       </c>
       <c r="B98" s="27"/>
       <c r="C98" s="44"/>
@@ -6375,67 +6726,66 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D99" s="29"/>
     </row>
-    <row r="100" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A100" s="28"/>
       <c r="C100" s="45" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D100" s="29"/>
     </row>
-    <row r="101" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A101" s="28"/>
       <c r="C101" s="45" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D101" s="29"/>
-      <c r="F101" s="71"/>
-    </row>
-    <row r="102" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A102" s="49" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C102" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="D102" s="29"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D103" s="29"/>
+    </row>
+    <row r="104" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="D102" s="29"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="50" t="s">
+      <c r="C104" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="D104" s="29"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D105" s="29"/>
+    </row>
+    <row r="106" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="52" t="s">
         <v>192</v>
-      </c>
-      <c r="D103" s="29"/>
-    </row>
-    <row r="104" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="C104" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="D104" s="29"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="D105" s="29"/>
-    </row>
-    <row r="106" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="52" t="s">
-        <v>196</v>
       </c>
       <c r="B106" s="30"/>
       <c r="C106" s="47" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.35">
@@ -6459,10 +6809,10 @@
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P115" s="1"/>
       <c r="U115" s="1"/>
@@ -6470,35 +6820,35 @@
     </row>
     <row r="116" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B116" s="72"/>
+        <v>254</v>
+      </c>
+      <c r="B116" s="71"/>
       <c r="C116" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="117" spans="1:22" ht="290" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B117" s="72" t="s">
-        <v>262</v>
+        <v>259</v>
+      </c>
+      <c r="B117" s="71" t="s">
+        <v>258</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="118" spans="1:22" ht="203" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="119" spans="1:22" ht="232" x14ac:dyDescent="0.35">
       <c r="C119" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.35">
@@ -6522,13 +6872,13 @@
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C123" s="53" t="s">
         <v>205</v>
-      </c>
-      <c r="C123" s="53" t="s">
-        <v>209</v>
       </c>
       <c r="P123" s="1"/>
       <c r="U123" s="1"/>
@@ -6540,32 +6890,32 @@
       <c r="U124" s="1"/>
       <c r="V124" s="2"/>
     </row>
-    <row r="125" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A125" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="B125" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="B125" s="56" t="s">
-        <v>208</v>
-      </c>
       <c r="C125" s="27" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D125" s="57" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="126" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A126" s="35" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B126" s="48" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C126" s="48" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D126" s="58" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F126" s="2"/>
     </row>
@@ -6573,7 +6923,7 @@
       <c r="A127" s="28"/>
       <c r="B127" s="48"/>
       <c r="C127" s="59" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D127" s="58"/>
       <c r="F127" s="2"/>
@@ -6582,16 +6932,16 @@
       <c r="A128" s="28"/>
       <c r="B128" s="48"/>
       <c r="C128" s="59" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D128" s="58" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F128" s="2"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="50" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B129" s="48"/>
       <c r="C129" s="48"/>
@@ -6600,24 +6950,24 @@
     </row>
     <row r="130" spans="1:6" ht="203" x14ac:dyDescent="0.35">
       <c r="A130" s="60" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B130" s="48"/>
       <c r="C130" s="59" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D130" s="58" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F130" s="2"/>
     </row>
     <row r="131" spans="1:6" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="64" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B131" s="61"/>
       <c r="C131" s="62" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D131" s="63"/>
       <c r="F131" s="2"/>
@@ -6636,13 +6986,13 @@
     </row>
     <row r="134" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A134" s="31" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B134" s="66" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C134" s="56" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D134" s="17" t="s">
         <v>31</v>
@@ -6651,7 +7001,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="50" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6661,23 +7011,23 @@
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="28"/>
       <c r="B136" s="67" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C136" s="53" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D136" s="29"/>
       <c r="F136" s="2"/>
     </row>
     <row r="137" spans="1:6" ht="406.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="68" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B137" s="69" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C137" s="69" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D137" s="21"/>
       <c r="F137" s="2"/>
@@ -6689,21 +7039,21 @@
     </row>
     <row r="139" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A139" s="26" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B139" s="66" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C139" s="56" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="50" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6712,32 +7062,32 @@
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="28"/>
       <c r="B141" s="67" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C141" s="53" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D141" s="29"/>
     </row>
     <row r="142" spans="1:6" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A142" s="28"/>
       <c r="B142" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C142" s="65" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D142" s="29"/>
     </row>
     <row r="143" spans="1:6" ht="334" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="68" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C143" s="69" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D143" s="21"/>
     </row>
@@ -6749,19 +7099,19 @@
     </row>
     <row r="146" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A146" s="31" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B146" s="27"/>
       <c r="C146" s="56" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="50" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6770,57 +7120,57 @@
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="28"/>
       <c r="B148" s="67" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C148" s="53" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D148" s="29"/>
     </row>
     <row r="149" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A149" s="49" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C149" s="65" t="s">
         <v>243</v>
-      </c>
-      <c r="C149" s="65" t="s">
-        <v>247</v>
       </c>
       <c r="D149" s="29"/>
     </row>
     <row r="150" spans="1:6" ht="319.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="70" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B150" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C150" s="69" t="s">
         <v>244</v>
-      </c>
-      <c r="C150" s="69" t="s">
-        <v>248</v>
       </c>
       <c r="D150" s="21"/>
     </row>
     <row r="151" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C151" s="48"/>
     </row>
-    <row r="152" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A152" s="31" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B152" s="66" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C152" s="56" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="50" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6829,38 +7179,38 @@
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="28"/>
       <c r="B154" s="67" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C154" s="53" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D154" s="29"/>
     </row>
     <row r="155" spans="1:6" ht="348" x14ac:dyDescent="0.35">
       <c r="A155" s="28"/>
       <c r="B155" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C155" s="65" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D155" s="29"/>
     </row>
     <row r="156" spans="1:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="18"/>
       <c r="B156" s="30" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C156" s="69" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D156" s="21"/>
       <c r="F156" s="54" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/2 четверть_4_Программист_ООП.xlsx
+++ b/2 четверть_4_Программист_ООП.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user0\Desktop\Homework-repo\GB_Developer_Workbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F375FC-6210-4122-BA7F-2D95B30B1A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041E665B-9604-4641-AEB9-068BD5EAA0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Название 1-6" sheetId="12" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="282">
   <si>
     <t>Функции</t>
   </si>
@@ -4172,17 +4172,200 @@
 }</t>
     </r>
   </si>
+  <si>
+    <t>Вариант 2
+Экземпляр класса задан</t>
+  </si>
+  <si>
+    <t>В данном случае экземпляр класса все равно можно создать, так как считается как будто он задан, но пустой. К нему все равно относятся нестатичные поля (поля экземпляра)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class LinkedL {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public String text;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> //поле экземпляра
+ //   public LinkedL(){
+ //   }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class LinkedL {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public String text;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    public LinkedL(){  //тоже самое, что и справа
+    }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>В данном случае экземпляр задан. Таким образом мы можем передать определенные значения его полям через параметры экземпляра</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class LinkedL {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public String text;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    public LinkedL(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">){
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this.text = text;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Вариант 1 
+Экземпляр класса не задан</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4530,7 +4713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4550,13 +4733,13 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -4566,16 +4749,16 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4584,7 +4767,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4599,7 +4782,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4626,31 +4809,40 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4659,16 +4851,40 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4677,91 +4893,46 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5626,8 +5797,8 @@
   </sheetPr>
   <dimension ref="A2:V156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5765,7 +5936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -5786,29 +5957,51 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" ht="232" x14ac:dyDescent="0.35">
+      <c r="F12" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="72" t="s">
         <v>262</v>
       </c>
       <c r="D13" s="57" t="s">
         <v>263</v>
       </c>
+      <c r="F13" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="29" t="s">
@@ -5819,10 +6012,10 @@
       <c r="A15" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="29"/>
@@ -5838,17 +6031,17 @@
       <c r="A16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="73"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="29" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="G16" s="78"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="27" t="s">
         <v>271</v>
       </c>
@@ -5856,7 +6049,7 @@
       <c r="K16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="78"/>
+      <c r="L16" s="27"/>
       <c r="M16" s="27" t="s">
         <v>66</v>
       </c>
@@ -5866,18 +6059,17 @@
       <c r="A17" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="14" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="28"/>
-      <c r="G17" s="76" t="s">
+      <c r="G17" s="73" t="s">
         <v>267</v>
       </c>
-      <c r="H17" s="74" t="s">
+      <c r="H17" s="2" t="s">
         <v>274</v>
       </c>
       <c r="I17" s="29"/>
@@ -5906,7 +6098,7 @@
       <c r="F18" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="G18" s="77" t="s">
+      <c r="G18" s="74" t="s">
         <v>273</v>
       </c>
       <c r="H18" s="30" t="s">
@@ -5926,10 +6118,10 @@
       <c r="A19" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="29" t="s">
@@ -7210,7 +7402,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/2 четверть_4_Программист_ООП.xlsx
+++ b/2 четверть_4_Программист_ООП.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041E665B-9604-4641-AEB9-068BD5EAA0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88490DB-1CA1-4ECE-A6BC-80687FDBBD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="299">
   <si>
     <t>Функции</t>
   </si>
@@ -1696,32 +1696,6 @@
   </si>
   <si>
     <t>Переопределяем методы интерфейса в методы своего класса</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Короткое пояснение: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Абстрактные классы могут включать  в себя как абстрактные, так и обычные методы. Абстрактные методы обязательны для реализации в классах-наследниках. Обычные методы не навзяывают своб реализацию в классах-наследниках.
-Таким образом мы создаем абстрактные классы только для того, чтобы мы могли создавать в нем абстрактные методы для классов-наследников</t>
-    </r>
   </si>
   <si>
     <t>00 17 00</t>
@@ -4347,17 +4321,307 @@
     <t>Вариант 1 
 Экземпляр класса не задан</t>
   </si>
+  <si>
+    <t>`https://javarush.com/groups/posts/1963-kak-ispoljhzovatjh-klass-enum</t>
+  </si>
+  <si>
+    <t>public class DayOfWeek {
+   private String title;
+   private DayOfWeek(String title) {
+       this.title = title;
+   }
+   public static DayOfWeek SUNDAY = new DayOfWeek("Воскресенье");
+   public static DayOfWeek MONDAY = new DayOfWeek("Понедельник");
+   public static DayOfWeek TUESDAY = new DayOfWeek("Вторник");
+   public static DayOfWeek WEDNESDAY = new DayOfWeek("Среда");
+   public static DayOfWeek THURSDAY = new DayOfWeek("Четверг");
+   public static DayOfWeek FRIDAY = new DayOfWeek("Пятница");
+   public static DayOfWeek SATURDAY = new DayOfWeek("Суббота");
+   @Override
+   public String toString() {
+       return "DayOfWeek{" +
+               "title='" + title + '\'' +
+               '}';
+   }
+}</t>
+  </si>
+  <si>
+    <t>До существования Enum</t>
+  </si>
+  <si>
+    <t>С появлением Enum</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Приватный конструктор</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Если конструктор помечен модификатором private, объект класса нельзя создать с помощью этого конструктора. А поскольку в этом классе конструктор всего один, объект DayOfWeek нельзя создать вообще.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 При этом в классе содержалось нужное количество </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public static объектов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, которые были инициализированы нужным нам образом (названия дней правильные).</t>
+    </r>
+  </si>
+  <si>
+    <t>Такой подход во многом позволял решить задачу. В нашем распоряжении были 7 дней недели, и при этом никто не мог создать новые.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Задачей любого ENUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> является как-то ограничить круг возможных значений для класса «день недели».</t>
+    </r>
+  </si>
+  <si>
+    <t>public enum DayOfWeek {
+   SUNDAY,
+   MONDAY,
+   TUESDAY,
+   WEDNESDAY,
+   THURSDAY,
+   FRIDAY,
+   SATURDAY
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class Scholar {
+   private ScholarSchedule schedule;
+   private boolean goToSchool;
+   public void wakeUp() {
+       if (this.schedule.getDayOfWeek() == </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DayOfWeek.SUNDAY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) {
+           System.out.println("Ура, можно поспать еще!");
+       } else {
+           System.out.println("Блин, опять в школу:(");
+       }
+   }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public class Man {
+public static void main(String[] args) {
+       DayOfWeek sunday = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DayOfWeek.SUNDAY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+       System.out.println(sunday);
+  }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>public enum DayOfWeek {
+   SUNDAY ("Воскресенье"),
+   MONDAY ("Понедельник"),
+   TUESDAY ("Вторник"),
+   WEDNESDAY ("Среда"),
+   THURSDAY ("Четверг"),
+   FRIDAY ("Пятница"),
+   SATURDAY ("Суббота");
+   private String title;
+   DayOfWeek(String title) {
+       this.title = title;
+   }
+   public String getTitle() {
+       return title;
+   }
+   @Override
+   public String toString() {
+       return "DayOfWeek{" +
+               "title='" + title + '\'' +
+               '}';
+   }
+}</t>
+  </si>
+  <si>
+    <t>Дополненный Enum</t>
+  </si>
+  <si>
+    <t>2 Также создается ограниченное количество объектов по описанному конструктору enum с параметрами.</t>
+  </si>
+  <si>
+    <t>1 В enum создаются объекты на основе конструктора без параметров. (конструторы в enum всегда private)</t>
+  </si>
+  <si>
+    <t>1 В enum создается конструктор с параметрами, методы, поля итд
+(конструторы в enum всегда private)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Короткое пояснение: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Абстрактные классы могут включать  в себя как абстрактные, так и обычные методы. Абстрактные методы обязательны для реализации в классах-наследниках. Обычные методы не навязывают свою реализацию в классах-наследниках.
+Таким образом мы создаем абстрактные классы только для того, чтобы мы могли создавать в нем абстрактные методы для классов-наследников</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Очень важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Невозможно создавать экземпляры объектов у абстрактных классов!</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4510,6 +4774,16 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -4713,7 +4987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4733,13 +5007,13 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -4749,16 +5023,16 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4767,7 +5041,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4782,7 +5056,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4809,31 +5083,40 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4842,16 +5125,40 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4860,79 +5167,58 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5358,8 +5644,8 @@
       <xdr:rowOff>57727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>64656</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2777013</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>905891</xdr:rowOff>
     </xdr:to>
@@ -5402,8 +5688,8 @@
       <xdr:rowOff>77487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>64656</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2777013</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>1475709</xdr:rowOff>
     </xdr:to>
@@ -5486,13 +5772,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>406401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3325665</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>1739901</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5795,10 +6081,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V156"/>
+  <dimension ref="A2:V163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5806,7 +6092,7 @@
     <col min="1" max="1" width="53.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="67.26953125" style="2" customWidth="1"/>
     <col min="3" max="3" width="66.08984375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="38.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.26953125" style="10" customWidth="1"/>
     <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
@@ -5958,16 +6244,16 @@
         <v>24</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G12" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="H12" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="I12" s="57" t="s">
         <v>277</v>
-      </c>
-      <c r="I12" s="57" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -5975,22 +6261,22 @@
         <v>28</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="D13" s="57" t="s">
-        <v>263</v>
-      </c>
       <c r="F13" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G13" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="H13" s="30" t="s">
         <v>279</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>280</v>
       </c>
       <c r="I13" s="21"/>
     </row>
@@ -5999,7 +6285,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>30</v>
@@ -6013,14 +6299,14 @@
         <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="29"/>
       <c r="F15" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>81</v>
@@ -6039,11 +6325,11 @@
         <v>35</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I16" s="17"/>
       <c r="K16" s="31" t="s">
@@ -6067,10 +6353,10 @@
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="73" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I17" s="29"/>
       <c r="K17" s="28" t="s">
@@ -6096,13 +6382,13 @@
         <v>37</v>
       </c>
       <c r="F18" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G18" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="G18" s="74" t="s">
-        <v>273</v>
-      </c>
       <c r="H18" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I18" s="21"/>
       <c r="K18" s="28" t="s">
@@ -6239,8 +6525,8 @@
       <c r="C27" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="36" t="s">
-        <v>147</v>
+      <c r="D27" s="78" t="s">
+        <v>297</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>82</v>
@@ -6323,6 +6609,9 @@
     <row r="32" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>101</v>
+      </c>
+      <c r="B32" s="78" t="s">
+        <v>298</v>
       </c>
       <c r="C32" s="36" t="s">
         <v>133</v>
@@ -6536,7 +6825,7 @@
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
       <c r="C50" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="25"/>
     </row>
@@ -6577,10 +6866,10 @@
     </row>
     <row r="58" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="43" t="s">
         <v>155</v>
-      </c>
-      <c r="B58" s="43" t="s">
-        <v>156</v>
       </c>
       <c r="C58" s="38" t="s">
         <v>134</v>
@@ -6674,7 +6963,7 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>117</v>
@@ -6688,18 +6977,18 @@
         <v>130</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C69" s="36" t="s">
         <v>131</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B70" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C70" s="36" t="s">
         <v>132</v>
@@ -6707,13 +6996,13 @@
     </row>
     <row r="71" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C71" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.35">
@@ -6724,7 +7013,7 @@
     </row>
     <row r="73" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="B73" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C73" s="36"/>
     </row>
@@ -6761,10 +7050,10 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="P80" s="1"/>
       <c r="U80" s="1"/>
@@ -6772,16 +7061,16 @@
     </row>
     <row r="81" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C81" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6793,23 +7082,23 @@
     </row>
     <row r="83" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A83" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="B83" s="46" t="s">
-        <v>168</v>
-      </c>
       <c r="C83" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="18"/>
       <c r="B84" s="30"/>
       <c r="C84" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D84" s="21"/>
     </row>
@@ -6818,11 +7107,11 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6833,22 +7122,22 @@
     </row>
     <row r="88" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A88" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B88" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A89" s="28"/>
       <c r="C89" s="45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D89" s="29"/>
     </row>
@@ -6856,7 +7145,7 @@
       <c r="A90" s="18"/>
       <c r="B90" s="30"/>
       <c r="C90" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D90" s="21"/>
     </row>
@@ -6865,7 +7154,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6876,41 +7165,41 @@
     <row r="94" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A94" s="31"/>
       <c r="B94" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C94" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D94" s="17"/>
     </row>
     <row r="95" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A95" s="28"/>
       <c r="B95" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D95" s="29"/>
     </row>
     <row r="96" spans="1:4" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="D96" s="21" t="s">
         <v>181</v>
-      </c>
-      <c r="B96" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="C96" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="D96" s="21" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B98" s="27"/>
       <c r="C98" s="44"/>
@@ -6927,57 +7216,57 @@
     <row r="100" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A100" s="28"/>
       <c r="C100" s="45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D100" s="29"/>
     </row>
     <row r="101" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A101" s="28"/>
       <c r="C101" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D101" s="29"/>
     </row>
     <row r="102" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A102" s="49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C102" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D102" s="29"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D103" s="29"/>
     </row>
     <row r="104" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A104" s="51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C104" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D104" s="29"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D105" s="29"/>
     </row>
     <row r="106" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B106" s="30"/>
       <c r="C106" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.35">
@@ -7001,304 +7290,332 @@
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="P115" s="1"/>
       <c r="U115" s="1"/>
       <c r="V115" s="2"/>
     </row>
-    <row r="116" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B116" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="P116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="2"/>
+    </row>
+    <row r="117" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A117" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="B117" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="C117" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="D117" s="77" t="s">
+        <v>293</v>
+      </c>
+      <c r="P117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="2"/>
+    </row>
+    <row r="118" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A118" s="75"/>
+      <c r="B118" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C118" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="P118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="2"/>
+    </row>
+    <row r="119" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="75"/>
+      <c r="B119" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C119" s="75"/>
+      <c r="D119" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="P119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="2"/>
+    </row>
+    <row r="120" spans="1:22" ht="391.5" x14ac:dyDescent="0.35">
+      <c r="B120" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C120" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="P120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="2"/>
+    </row>
+    <row r="121" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+      <c r="B121" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C121" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="P121" s="1"/>
+      <c r="U121" s="1"/>
+      <c r="V121" s="2"/>
+    </row>
+    <row r="122" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="B122" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="P122" s="1"/>
+      <c r="U122" s="1"/>
+      <c r="V122" s="2"/>
+    </row>
+    <row r="123" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B123" s="71"/>
+      <c r="C123" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B116" s="71"/>
-      <c r="C116" s="2" t="s">
+    </row>
+    <row r="124" spans="1:22" ht="290" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B124" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+      <c r="A125" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" ht="232" x14ac:dyDescent="0.35">
+      <c r="C126" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="290" x14ac:dyDescent="0.35">
-      <c r="A117" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B117" s="71" t="s">
-        <v>258</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="118" spans="1:22" ht="203" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="119" spans="1:22" ht="232" x14ac:dyDescent="0.35">
-      <c r="C119" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A122" s="6"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
-      <c r="K122" s="6"/>
-      <c r="L122" s="6"/>
-      <c r="M122" s="6"/>
-      <c r="N122" s="6"/>
-      <c r="P122" s="8"/>
-      <c r="Q122" s="8"/>
-      <c r="R122" s="8"/>
-      <c r="S122" s="8"/>
-      <c r="U122" s="8"/>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A129" s="6"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="6"/>
+      <c r="N129" s="6"/>
+      <c r="P129" s="8"/>
+      <c r="Q129" s="8"/>
+      <c r="R129" s="8"/>
+      <c r="S129" s="8"/>
+      <c r="U129" s="8"/>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C130" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="P130" s="1"/>
+      <c r="U130" s="1"/>
+      <c r="V130" s="2"/>
+    </row>
+    <row r="131" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C131" s="53"/>
+      <c r="P131" s="1"/>
+      <c r="U131" s="1"/>
+      <c r="V131" s="2"/>
+    </row>
+    <row r="132" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A132" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="B132" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="C132" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="D132" s="57" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A133" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="B133" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="C133" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="D133" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A134" s="28"/>
+      <c r="B134" s="48"/>
+      <c r="C134" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="D134" s="58"/>
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A135" s="28"/>
+      <c r="B135" s="48"/>
+      <c r="C135" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="D135" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A136" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="B136" s="48"/>
+      <c r="C136" s="48"/>
+      <c r="D136" s="58"/>
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+      <c r="A137" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="B137" s="48"/>
+      <c r="C137" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="D137" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="1:22" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="B138" s="61"/>
+      <c r="C138" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="D138" s="63"/>
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B139" s="48"/>
+      <c r="C139" s="48"/>
+      <c r="D139" s="2"/>
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B140" s="48"/>
+      <c r="C140" s="48"/>
+      <c r="D140" s="2"/>
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A141" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="C123" s="53" t="s">
+      <c r="B141" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="C141" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A142" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="29"/>
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A143" s="28"/>
+      <c r="B143" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C143" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D143" s="29"/>
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144" spans="1:22" ht="406.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="B144" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="C144" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="D144" s="21"/>
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B145" s="65"/>
+      <c r="C145" s="48"/>
+      <c r="F145" s="2"/>
+    </row>
+    <row r="146" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A146" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="B146" s="66" t="s">
+        <v>235</v>
+      </c>
+      <c r="C146" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="P123" s="1"/>
-      <c r="U123" s="1"/>
-      <c r="V123" s="2"/>
-    </row>
-    <row r="124" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C124" s="53"/>
-      <c r="P124" s="1"/>
-      <c r="U124" s="1"/>
-      <c r="V124" s="2"/>
-    </row>
-    <row r="125" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="55" t="s">
-        <v>200</v>
-      </c>
-      <c r="B125" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="C125" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="D125" s="57" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="126" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A126" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="B126" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="C126" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="D126" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="F126" s="2"/>
-    </row>
-    <row r="127" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="A127" s="28"/>
-      <c r="B127" s="48"/>
-      <c r="C127" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="D127" s="58"/>
-      <c r="F127" s="2"/>
-    </row>
-    <row r="128" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="28"/>
-      <c r="B128" s="48"/>
-      <c r="C128" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="D128" s="58" t="s">
-        <v>217</v>
-      </c>
-      <c r="F128" s="2"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="B129" s="48"/>
-      <c r="C129" s="48"/>
-      <c r="D129" s="58"/>
-      <c r="F129" s="2"/>
-    </row>
-    <row r="130" spans="1:6" ht="203" x14ac:dyDescent="0.35">
-      <c r="A130" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="B130" s="48"/>
-      <c r="C130" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="D130" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="F130" s="2"/>
-    </row>
-    <row r="131" spans="1:6" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="64" t="s">
-        <v>221</v>
-      </c>
-      <c r="B131" s="61"/>
-      <c r="C131" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="D131" s="63"/>
-      <c r="F131" s="2"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B132" s="48"/>
-      <c r="C132" s="48"/>
-      <c r="D132" s="2"/>
-      <c r="F132" s="2"/>
-    </row>
-    <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B133" s="48"/>
-      <c r="C133" s="48"/>
-      <c r="D133" s="2"/>
-      <c r="F133" s="2"/>
-    </row>
-    <row r="134" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A134" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="B134" s="66" t="s">
-        <v>231</v>
-      </c>
-      <c r="C134" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="D134" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F134" s="2"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A135" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="29"/>
-      <c r="F135" s="2"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A136" s="28"/>
-      <c r="B136" s="67" t="s">
-        <v>227</v>
-      </c>
-      <c r="C136" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="D136" s="29"/>
-      <c r="F136" s="2"/>
-    </row>
-    <row r="137" spans="1:6" ht="406.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="68" t="s">
+      <c r="D146" s="17" t="s">
         <v>229</v>
-      </c>
-      <c r="B137" s="69" t="s">
-        <v>226</v>
-      </c>
-      <c r="C137" s="69" t="s">
-        <v>225</v>
-      </c>
-      <c r="D137" s="21"/>
-      <c r="F137" s="2"/>
-    </row>
-    <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B138" s="65"/>
-      <c r="C138" s="48"/>
-      <c r="F138" s="2"/>
-    </row>
-    <row r="139" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A139" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="B139" s="66" t="s">
-        <v>236</v>
-      </c>
-      <c r="C139" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A140" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="29"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A141" s="28"/>
-      <c r="B141" s="67" t="s">
-        <v>227</v>
-      </c>
-      <c r="C141" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="D141" s="29"/>
-    </row>
-    <row r="142" spans="1:6" ht="391.5" x14ac:dyDescent="0.35">
-      <c r="A142" s="28"/>
-      <c r="B142" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C142" s="65" t="s">
-        <v>234</v>
-      </c>
-      <c r="D142" s="29"/>
-    </row>
-    <row r="143" spans="1:6" ht="334" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="B143" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="C143" s="69" t="s">
-        <v>235</v>
-      </c>
-      <c r="D143" s="21"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C144" s="48"/>
-    </row>
-    <row r="145" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C145" s="48"/>
-    </row>
-    <row r="146" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A146" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="B146" s="27"/>
-      <c r="C146" s="56" t="s">
-        <v>208</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
@@ -7312,97 +7629,155 @@
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="28"/>
       <c r="B148" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C148" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="C148" s="53" t="s">
-        <v>228</v>
-      </c>
       <c r="D148" s="29"/>
     </row>
-    <row r="149" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A149" s="49" t="s">
+    <row r="149" spans="1:6" ht="391.5" x14ac:dyDescent="0.35">
+      <c r="A149" s="28"/>
+      <c r="B149" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C149" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="D149" s="29"/>
+    </row>
+    <row r="150" spans="1:6" ht="334" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="B150" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C150" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="D150" s="21"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C151" s="48"/>
+    </row>
+    <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C152" s="48"/>
+    </row>
+    <row r="153" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A153" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B153" s="27"/>
+      <c r="C153" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="29"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155" s="28"/>
+      <c r="B155" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C155" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D155" s="29"/>
+    </row>
+    <row r="156" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A156" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C156" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="D156" s="29"/>
+    </row>
+    <row r="157" spans="1:6" ht="319.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A157" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B157" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="C149" s="65" t="s">
+      <c r="C157" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="D149" s="29"/>
-    </row>
-    <row r="150" spans="1:6" ht="319.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="70" t="s">
-        <v>242</v>
-      </c>
-      <c r="B150" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="C150" s="69" t="s">
+      <c r="D157" s="21"/>
+    </row>
+    <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C158" s="48"/>
+    </row>
+    <row r="159" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A159" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B159" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="C159" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="D159" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="D150" s="21"/>
-    </row>
-    <row r="151" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C151" s="48"/>
-    </row>
-    <row r="152" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A152" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="B152" s="66" t="s">
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="29"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161" s="28"/>
+      <c r="B161" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C161" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D161" s="29"/>
+    </row>
+    <row r="162" spans="1:6" ht="348" x14ac:dyDescent="0.35">
+      <c r="A162" s="28"/>
+      <c r="B162" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C152" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="D152" s="17" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A153" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="29"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A154" s="28"/>
-      <c r="B154" s="67" t="s">
-        <v>227</v>
-      </c>
-      <c r="C154" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="D154" s="29"/>
-    </row>
-    <row r="155" spans="1:6" ht="348" x14ac:dyDescent="0.35">
-      <c r="A155" s="28"/>
-      <c r="B155" s="2" t="s">
+      <c r="C162" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="D162" s="29"/>
+    </row>
+    <row r="163" spans="1:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A163" s="18"/>
+      <c r="B163" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="C155" s="65" t="s">
+      <c r="C163" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="D155" s="29"/>
-    </row>
-    <row r="156" spans="1:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="18"/>
-      <c r="B156" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="C156" s="69" t="s">
-        <v>250</v>
-      </c>
-      <c r="D156" s="21"/>
-      <c r="F156" s="54" t="s">
-        <v>252</v>
+      <c r="D163" s="21"/>
+      <c r="F163" s="54" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/2 четверть_4_Программист_ООП.xlsx
+++ b/2 четверть_4_Программист_ООП.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88490DB-1CA1-4ECE-A6BC-80687FDBBD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D59CD6-D883-4A2F-B621-45EF6B2634DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4602,18 +4602,38 @@
       </rPr>
       <t>Невозможно создавать экземпляры объектов у абстрактных классов!</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Однако возможно создать конструктор внутри кода, реализующего абстрактный класс. Контсруктор нужен для передачи классам-наследникам.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4987,7 +5007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5007,13 +5027,13 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -5023,16 +5043,16 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5041,7 +5061,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5056,7 +5076,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5083,31 +5103,40 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -5116,16 +5145,40 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -5134,88 +5187,58 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -6083,8 +6106,8 @@
   </sheetPr>
   <dimension ref="A2:V163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6610,7 +6633,7 @@
       <c r="A32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="79" t="s">
         <v>298</v>
       </c>
       <c r="C32" s="36" t="s">
@@ -7777,7 +7800,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/2 четверть_4_Программист_ООП.xlsx
+++ b/2 четверть_4_Программист_ООП.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D59CD6-D883-4A2F-B621-45EF6B2634DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E2A6CA-CFE4-4581-BE88-574AA14A1322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="307">
   <si>
     <t>Функции</t>
   </si>
@@ -3671,9 +3671,6 @@
     </r>
   </si>
   <si>
-    <t>Enum</t>
-  </si>
-  <si>
     <t>package personal.views;
 public enum Commands {
     NONE,
@@ -4406,9 +4403,6 @@
     </r>
   </si>
   <si>
-    <t>Такой подход во многом позволял решить задачу. В нашем распоряжении были 7 дней недели, и при этом никто не мог создать новые.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -4443,78 +4437,6 @@
    FRIDAY,
    SATURDAY
 }</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">public class Scholar {
-   private ScholarSchedule schedule;
-   private boolean goToSchool;
-   public void wakeUp() {
-       if (this.schedule.getDayOfWeek() == </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DayOfWeek.SUNDAY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) {
-           System.out.println("Ура, можно поспать еще!");
-       } else {
-           System.out.println("Блин, опять в школу:(");
-       }
-   }
-}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">public class Man {
-public static void main(String[] args) {
-       DayOfWeek sunday = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DayOfWeek.SUNDAY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;
-       System.out.println(sunday);
-  }
-}</t>
-    </r>
   </si>
   <si>
     <t>public enum DayOfWeek {
@@ -4615,17 +4537,251 @@
 Однако возможно создать конструктор внутри кода, реализующего абстрактный класс. Контсруктор нужен для передачи классам-наследникам.</t>
     </r>
   </si>
+  <si>
+    <t>Методы Enum</t>
+  </si>
+  <si>
+    <t>values()</t>
+  </si>
+  <si>
+    <t>ordinal()</t>
+  </si>
+  <si>
+    <t>valueOf()</t>
+  </si>
+  <si>
+    <t>public static void main(String[] args) {
+   DayOfWeek sunday = DayOfWeek.valueOf("SUNDAY");
+   System.out.println(sunday);
+}</t>
+  </si>
+  <si>
+    <t>public static void main(String[] args) {
+   		int sundayIndex = DayOfWeek.SUNDAY.ordinal();
+   		System.out.println(sundayIndex);
+}</t>
+  </si>
+  <si>
+    <t>public static void main(String[] args) {
+   		System.out.println(Arrays.toString(DayOfWeek.values()));
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Сравнение enum классов происходит через ==</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Вывод:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[DayOfWeek{title='Воскресенье'}, DayOfWeek{title='Понедельник'}, DayOfWeek{title='Вторник'}, DayOfWeek{title='Среда'}, DayOfWeek{title='Четверг'}, DayOfWeek{title='Пятница'}, DayOfWeek{title='Суббота'}]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Вывод:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Вывод:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+DayOfWeek{title='Воскресенье'}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Enum работает только для String и Integer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Очень важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Также можно реализовать метод </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>toString()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, в котором переопределить обработку полей экземпляра и указывать реазультат в return. В этом случае при обращении к конкретному экземпляру enum нам будет возвращаться определенное string значение - используется для передачи emoji</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4809,8 +4965,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4874,6 +5037,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5007,7 +5182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5027,13 +5202,13 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -5043,202 +5218,220 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -5795,13 +5988,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>406401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3325665</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>1739901</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6104,10 +6297,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V163"/>
+  <dimension ref="A2:V165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6267,16 +6460,16 @@
         <v>24</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G12" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="H12" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="I12" s="57" t="s">
         <v>276</v>
-      </c>
-      <c r="I12" s="57" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6284,22 +6477,22 @@
         <v>28</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C13" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="57" t="s">
-        <v>262</v>
-      </c>
       <c r="F13" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G13" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="H13" s="30" t="s">
         <v>278</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>279</v>
       </c>
       <c r="I13" s="21"/>
     </row>
@@ -6308,7 +6501,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>30</v>
@@ -6322,14 +6515,14 @@
         <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="29"/>
       <c r="F15" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>81</v>
@@ -6348,11 +6541,11 @@
         <v>35</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I16" s="17"/>
       <c r="K16" s="31" t="s">
@@ -6376,10 +6569,10 @@
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="73" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I17" s="29"/>
       <c r="K17" s="28" t="s">
@@ -6405,13 +6598,13 @@
         <v>37</v>
       </c>
       <c r="F18" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="G18" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="G18" s="74" t="s">
-        <v>272</v>
-      </c>
       <c r="H18" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I18" s="21"/>
       <c r="K18" s="28" t="s">
@@ -6549,7 +6742,7 @@
         <v>53</v>
       </c>
       <c r="D27" s="78" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>82</v>
@@ -6634,7 +6827,7 @@
         <v>101</v>
       </c>
       <c r="B32" s="79" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C32" s="36" t="s">
         <v>133</v>
@@ -7323,25 +7516,28 @@
       <c r="V115" s="2"/>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B116" s="2" t="s">
-        <v>281</v>
-      </c>
+      <c r="A116" s="83"/>
+      <c r="B116" s="82" t="s">
+        <v>280</v>
+      </c>
+      <c r="C116" s="84"/>
+      <c r="D116" s="83"/>
       <c r="P116" s="1"/>
       <c r="U116" s="1"/>
       <c r="V116" s="2"/>
     </row>
     <row r="117" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="75" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B117" s="76" t="s">
+        <v>282</v>
+      </c>
+      <c r="C117" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="C117" s="77" t="s">
-        <v>284</v>
-      </c>
       <c r="D117" s="77" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P117" s="1"/>
       <c r="U117" s="1"/>
@@ -7350,13 +7546,13 @@
     <row r="118" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A118" s="75"/>
       <c r="B118" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C118" s="75" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P118" s="1"/>
       <c r="U118" s="1"/>
@@ -7365,442 +7561,481 @@
     <row r="119" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="75"/>
       <c r="B119" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C119" s="75"/>
       <c r="D119" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P119" s="1"/>
       <c r="U119" s="1"/>
       <c r="V119" s="2"/>
     </row>
     <row r="120" spans="1:22" ht="391.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="85" t="s">
+        <v>306</v>
+      </c>
       <c r="B120" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C120" s="75" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P120" s="1"/>
       <c r="U120" s="1"/>
       <c r="V120" s="2"/>
     </row>
-    <row r="121" spans="1:22" ht="203" x14ac:dyDescent="0.35">
-      <c r="B121" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C121" s="75" t="s">
-        <v>290</v>
-      </c>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A121" s="81" t="s">
+        <v>295</v>
+      </c>
+      <c r="C121" s="75"/>
+      <c r="D121" s="2"/>
       <c r="P121" s="1"/>
       <c r="U121" s="1"/>
       <c r="V121" s="2"/>
     </row>
-    <row r="122" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="B122" s="2" t="s">
-        <v>287</v>
+    <row r="122" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B122" s="80" t="s">
+        <v>302</v>
+      </c>
+      <c r="C122" s="80" t="s">
+        <v>301</v>
+      </c>
+      <c r="D122" s="80" t="s">
+        <v>303</v>
       </c>
       <c r="P122" s="1"/>
       <c r="U122" s="1"/>
       <c r="V122" s="2"/>
     </row>
-    <row r="123" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C123" s="80" t="s">
+        <v>300</v>
+      </c>
+      <c r="D123" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="P123" s="1"/>
+      <c r="U123" s="1"/>
+      <c r="V123" s="2"/>
+    </row>
+    <row r="124" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C124" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="D124" s="80" t="s">
+        <v>305</v>
+      </c>
+      <c r="P124" s="1"/>
+      <c r="U124" s="1"/>
+      <c r="V124" s="2"/>
+    </row>
+    <row r="125" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B125" s="71"/>
+      <c r="C125" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B123" s="71"/>
-      <c r="C123" s="2" t="s">
+    </row>
+    <row r="126" spans="1:22" ht="290" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B126" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+      <c r="A127" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" ht="232" x14ac:dyDescent="0.35">
+      <c r="C128" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="290" x14ac:dyDescent="0.35">
-      <c r="A124" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B124" s="71" t="s">
-        <v>257</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="125" spans="1:22" ht="203" x14ac:dyDescent="0.35">
-      <c r="A125" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="126" spans="1:22" ht="232" x14ac:dyDescent="0.35">
-      <c r="C126" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A129" s="6"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="6"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
-      <c r="K129" s="6"/>
-      <c r="L129" s="6"/>
-      <c r="M129" s="6"/>
-      <c r="N129" s="6"/>
-      <c r="P129" s="8"/>
-      <c r="Q129" s="8"/>
-      <c r="R129" s="8"/>
-      <c r="S129" s="8"/>
-      <c r="U129" s="8"/>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A130" s="1" t="s">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A131" s="6"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6"/>
+      <c r="N131" s="6"/>
+      <c r="P131" s="8"/>
+      <c r="Q131" s="8"/>
+      <c r="R131" s="8"/>
+      <c r="S131" s="8"/>
+      <c r="U131" s="8"/>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B132" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C130" s="53" t="s">
+      <c r="C132" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="P130" s="1"/>
-      <c r="U130" s="1"/>
-      <c r="V130" s="2"/>
-    </row>
-    <row r="131" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C131" s="53"/>
-      <c r="P131" s="1"/>
-      <c r="U131" s="1"/>
-      <c r="V131" s="2"/>
-    </row>
-    <row r="132" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="55" t="s">
+      <c r="P132" s="1"/>
+      <c r="U132" s="1"/>
+      <c r="V132" s="2"/>
+    </row>
+    <row r="133" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C133" s="53"/>
+      <c r="P133" s="1"/>
+      <c r="U133" s="1"/>
+      <c r="V133" s="2"/>
+    </row>
+    <row r="134" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A134" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="B132" s="56" t="s">
+      <c r="B134" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="C132" s="27" t="s">
+      <c r="C134" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="D132" s="57" t="s">
+      <c r="D134" s="57" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="133" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A133" s="35" t="s">
+    <row r="135" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A135" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="B133" s="48" t="s">
+      <c r="B135" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="C133" s="48" t="s">
+      <c r="C135" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="D133" s="58" t="s">
+      <c r="D135" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="F133" s="2"/>
-    </row>
-    <row r="134" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="A134" s="28"/>
-      <c r="B134" s="48"/>
-      <c r="C134" s="59" t="s">
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A136" s="28"/>
+      <c r="B136" s="48"/>
+      <c r="C136" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="D134" s="58"/>
-      <c r="F134" s="2"/>
-    </row>
-    <row r="135" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A135" s="28"/>
-      <c r="B135" s="48"/>
-      <c r="C135" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="D135" s="58" t="s">
-        <v>216</v>
-      </c>
-      <c r="F135" s="2"/>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A136" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="B136" s="48"/>
-      <c r="C136" s="48"/>
       <c r="D136" s="58"/>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:22" ht="203" x14ac:dyDescent="0.35">
-      <c r="A137" s="60" t="s">
-        <v>218</v>
-      </c>
+    <row r="137" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A137" s="28"/>
       <c r="B137" s="48"/>
       <c r="C137" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="D137" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A138" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="B138" s="48"/>
+      <c r="C138" s="48"/>
+      <c r="D138" s="58"/>
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139" spans="1:22" ht="203" x14ac:dyDescent="0.35">
+      <c r="A139" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="B139" s="48"/>
+      <c r="C139" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="D137" s="58" t="s">
+      <c r="D139" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="F137" s="2"/>
-    </row>
-    <row r="138" spans="1:22" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="64" t="s">
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="1:22" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="B138" s="61"/>
-      <c r="C138" s="62" t="s">
+      <c r="B140" s="61"/>
+      <c r="C140" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="D138" s="63"/>
-      <c r="F138" s="2"/>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B139" s="48"/>
-      <c r="C139" s="48"/>
-      <c r="D139" s="2"/>
-      <c r="F139" s="2"/>
-    </row>
-    <row r="140" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B140" s="48"/>
-      <c r="C140" s="48"/>
-      <c r="D140" s="2"/>
+      <c r="D140" s="63"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A141" s="31" t="s">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B141" s="48"/>
+      <c r="C141" s="48"/>
+      <c r="D141" s="2"/>
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B142" s="48"/>
+      <c r="C142" s="48"/>
+      <c r="D142" s="2"/>
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A143" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="B141" s="66" t="s">
+      <c r="B143" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="C141" s="56" t="s">
+      <c r="C143" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="D141" s="17" t="s">
+      <c r="D143" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F141" s="2"/>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A142" s="50" t="s">
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A144" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="29"/>
-      <c r="F142" s="2"/>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A143" s="28"/>
-      <c r="B143" s="67" t="s">
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="29"/>
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" s="28"/>
+      <c r="B145" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="C143" s="53" t="s">
+      <c r="C145" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="D143" s="29"/>
-      <c r="F143" s="2"/>
-    </row>
-    <row r="144" spans="1:22" ht="406.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="68" t="s">
+      <c r="D145" s="29"/>
+      <c r="F145" s="2"/>
+    </row>
+    <row r="146" spans="1:6" ht="406.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="B144" s="69" t="s">
+      <c r="B146" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="C144" s="69" t="s">
+      <c r="C146" s="69" t="s">
         <v>224</v>
       </c>
-      <c r="D144" s="21"/>
-      <c r="F144" s="2"/>
-    </row>
-    <row r="145" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B145" s="65"/>
-      <c r="C145" s="48"/>
-      <c r="F145" s="2"/>
-    </row>
-    <row r="146" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A146" s="26" t="s">
+      <c r="D146" s="21"/>
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B147" s="65"/>
+      <c r="C147" s="48"/>
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A148" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="B146" s="66" t="s">
+      <c r="B148" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="C146" s="56" t="s">
+      <c r="C148" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="D146" s="17" t="s">
+      <c r="D148" s="17" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A147" s="50" t="s">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="29"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A148" s="28"/>
-      <c r="B148" s="67" t="s">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="29"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150" s="28"/>
+      <c r="B150" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="C148" s="53" t="s">
+      <c r="C150" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="D148" s="29"/>
-    </row>
-    <row r="149" spans="1:6" ht="391.5" x14ac:dyDescent="0.35">
-      <c r="A149" s="28"/>
-      <c r="B149" s="2" t="s">
+      <c r="D150" s="29"/>
+    </row>
+    <row r="151" spans="1:6" ht="391.5" x14ac:dyDescent="0.35">
+      <c r="A151" s="28"/>
+      <c r="B151" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C149" s="65" t="s">
+      <c r="C151" s="65" t="s">
         <v>233</v>
       </c>
-      <c r="D149" s="29"/>
-    </row>
-    <row r="150" spans="1:6" ht="334" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="68" t="s">
+      <c r="D151" s="29"/>
+    </row>
+    <row r="152" spans="1:6" ht="334" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A152" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="B150" s="30" t="s">
+      <c r="B152" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="C150" s="69" t="s">
+      <c r="C152" s="69" t="s">
         <v>234</v>
       </c>
-      <c r="D150" s="21"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C151" s="48"/>
-    </row>
-    <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C152" s="48"/>
-    </row>
-    <row r="153" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A153" s="31" t="s">
+      <c r="D152" s="21"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C153" s="48"/>
+    </row>
+    <row r="154" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C154" s="48"/>
+    </row>
+    <row r="155" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A155" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="B153" s="27"/>
-      <c r="C153" s="56" t="s">
+      <c r="B155" s="27"/>
+      <c r="C155" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="D153" s="17" t="s">
+      <c r="D155" s="17" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A154" s="50" t="s">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="29"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A155" s="28"/>
-      <c r="B155" s="67" t="s">
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="29"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157" s="28"/>
+      <c r="B157" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="C155" s="53" t="s">
+      <c r="C157" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="D155" s="29"/>
-    </row>
-    <row r="156" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A156" s="49" t="s">
+      <c r="D157" s="29"/>
+    </row>
+    <row r="158" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A158" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C156" s="65" t="s">
+      <c r="C158" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="D156" s="29"/>
-    </row>
-    <row r="157" spans="1:6" ht="319.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="70" t="s">
+      <c r="D158" s="29"/>
+    </row>
+    <row r="159" spans="1:6" ht="319.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A159" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="B157" s="30" t="s">
+      <c r="B159" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="C157" s="69" t="s">
+      <c r="C159" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="D157" s="21"/>
-    </row>
-    <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C158" s="48"/>
-    </row>
-    <row r="159" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A159" s="31" t="s">
+      <c r="D159" s="21"/>
+    </row>
+    <row r="160" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C160" s="48"/>
+    </row>
+    <row r="161" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A161" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="B159" s="66" t="s">
+      <c r="B161" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="C159" s="56" t="s">
+      <c r="C161" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="D159" s="17" t="s">
+      <c r="D161" s="17" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A160" s="50" t="s">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="29"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A161" s="28"/>
-      <c r="B161" s="67" t="s">
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="29"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163" s="28"/>
+      <c r="B163" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="C161" s="53" t="s">
+      <c r="C163" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="D161" s="29"/>
-    </row>
-    <row r="162" spans="1:6" ht="348" x14ac:dyDescent="0.35">
-      <c r="A162" s="28"/>
-      <c r="B162" s="2" t="s">
+      <c r="D163" s="29"/>
+    </row>
+    <row r="164" spans="1:6" ht="348" x14ac:dyDescent="0.35">
+      <c r="A164" s="28"/>
+      <c r="B164" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C162" s="65" t="s">
+      <c r="C164" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="D162" s="29"/>
-    </row>
-    <row r="163" spans="1:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="18"/>
-      <c r="B163" s="30" t="s">
+      <c r="D164" s="29"/>
+    </row>
+    <row r="165" spans="1:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A165" s="18"/>
+      <c r="B165" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="C163" s="69" t="s">
+      <c r="C165" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="D163" s="21"/>
-      <c r="F163" s="54" t="s">
+      <c r="D165" s="21"/>
+      <c r="F165" s="54" t="s">
         <v>251</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
